--- a/whowherewhen/whowhenwhere_test_result_kesehatan_evaluated.xlsx
+++ b/whowherewhen/whowhenwhere_test_result_kesehatan_evaluated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PetaKabar\whowherewhen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876BF364-3085-4CE3-A95F-7CC566016040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA32847E-6F8E-4824-BCB0-9D8C8F11B660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12077,8 +12077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="W137" sqref="W137"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12316,7 +12316,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -12600,7 +12600,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -13097,7 +13097,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -13239,7 +13239,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -13594,7 +13594,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -13878,7 +13878,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -13949,7 +13949,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -14304,7 +14304,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -14375,7 +14375,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -14517,7 +14517,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -15085,7 +15085,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -15795,7 +15795,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -16363,7 +16363,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -16434,7 +16434,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -17496,7 +17496,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>24</v>
+        <v>221</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -18632,7 +18632,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -18845,7 +18845,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>24</v>
+        <v>398</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -19129,7 +19129,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -19413,7 +19413,7 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>24</v>
+        <v>221</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -20691,7 +20691,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -20762,7 +20762,7 @@
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -20975,7 +20975,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -21188,7 +21188,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -21401,7 +21401,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -21969,7 +21969,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H140">
         <v>0</v>

--- a/whowherewhen/whowhenwhere_test_result_kesehatan_evaluated.xlsx
+++ b/whowherewhen/whowhenwhere_test_result_kesehatan_evaluated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PetaKabar\whowherewhen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA32847E-6F8E-4824-BCB0-9D8C8F11B660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664D9C13-A543-4391-9D83-7200534765DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12077,8 +12077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="W147" sqref="W147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16677,7 +16677,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" t="s">
         <v>24</v>
@@ -16689,7 +16689,7 @@
         <v>38</v>
       </c>
       <c r="U65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V65">
         <v>0</v>
@@ -18017,7 +18017,7 @@
         <v>24</v>
       </c>
       <c r="O84" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -18372,13 +18372,13 @@
         <v>24</v>
       </c>
       <c r="O89" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89" t="s">
         <v>24</v>
@@ -18946,7 +18946,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R97" t="s">
         <v>24</v>
@@ -18961,7 +18961,7 @@
         <v>0</v>
       </c>
       <c r="V97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W97" t="s">
         <v>402</v>
@@ -19934,13 +19934,13 @@
         <v>24</v>
       </c>
       <c r="O111" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="P111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R111" t="s">
         <v>24</v>
@@ -21070,13 +21070,13 @@
         <v>24</v>
       </c>
       <c r="O127" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="P127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R127" t="s">
         <v>24</v>
@@ -21780,13 +21780,13 @@
         <v>24</v>
       </c>
       <c r="O137" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="P137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R137" t="s">
         <v>24</v>
